--- a/Laboratorium_10/TestCases.xlsx
+++ b/Laboratorium_10/TestCases.xlsx
@@ -267,7 +267,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -295,11 +295,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -363,7 +358,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -408,19 +403,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -524,16 +511,16 @@
   <dimension ref="A2:Q27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="37.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.94"/>
@@ -622,7 +609,7 @@
       <c r="H4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="10" t="s">
@@ -652,24 +639,24 @@
       <c r="F5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13" t="s">
+      <c r="G5" s="11"/>
+      <c r="H5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -681,27 +668,27 @@
       <c r="F6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="E7" s="8" t="s">
@@ -710,62 +697,62 @@
       <c r="F7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="14"/>
       <c r="E8" s="8" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -774,27 +761,27 @@
       <c r="F9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13" t="s">
+      <c r="G9" s="11"/>
+      <c r="H9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="7" t="s">
         <v>41</v>
       </c>
@@ -805,27 +792,27 @@
       <c r="F10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13" t="s">
+      <c r="G10" s="11"/>
+      <c r="H10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="E11" s="8" t="s">
@@ -834,92 +821,92 @@
       <c r="F11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="E12" s="8" t="s">
         <v>48</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13" t="s">
+      <c r="G12" s="11"/>
+      <c r="H12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="18" t="n">
+      <c r="J12" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="K12" s="18" t="n">
+      <c r="K12" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
       <c r="E13" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13" t="s">
+      <c r="G13" s="11"/>
+      <c r="H13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="18" t="n">
+      <c r="J13" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="K13" s="18" t="n">
+      <c r="K13" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="3" t="s">
         <v>53</v>
       </c>
@@ -928,56 +915,56 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="19" t="n">
+      <c r="C21" s="17" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="3" t="s">
         <v>61</v>
       </c>
@@ -986,7 +973,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="3" t="s">
         <v>11</v>
       </c>
@@ -995,14 +982,14 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
@@ -1011,7 +998,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="3" t="s">
         <v>65</v>
       </c>
